--- a/biology/Médecine/Liste_de_médicaments_Kampo/Liste_de_médicaments_Kampo.xlsx
+++ b/biology/Médecine/Liste_de_médicaments_Kampo/Liste_de_médicaments_Kampo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_Kampo</t>
+          <t>Liste_de_médicaments_Kampo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine kampō (ou Kanpō, 漢方) est l'étude et l'adaptation japonaises de la médecine traditionnelle chinoise. Au Japon, Kampo est intégré au système national de santé. En 1967, le ministère de la Santé, du Travail et des Affaires sociales a approuvé le remboursement de 4 médicaments kampo dans le cadre du programme national d'assurance maladie (NHI). En 1976, 82 médicaments kampo ont été approuvés par le ministère de la Santé, du Travail et du Bien-être. Actuellement, 148 médicaments kampo sont remboursés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine kampō (ou Kanpō, 漢方) est l'étude et l'adaptation japonaises de la médecine traditionnelle chinoise. Au Japon, Kampo est intégré au système national de santé. En 1967, le ministère de la Santé, du Travail et des Affaires sociales a approuvé le remboursement de 4 médicaments kampo dans le cadre du programme national d'assurance maladie (NHI). En 1976, 82 médicaments kampo ont été approuvés par le ministère de la Santé, du Travail et du Bien-être. Actuellement, 148 médicaments kampo sont remboursés.
 Plutôt que de modifier les formules comme dans la médecine traditionnelle chinoise, la tradition japonaise du kampo utilise des combinaisons fixes d'herbes dans des proportions standardisées selon la littérature classique de la médecine chinoise. Les médicaments Kampo sont produits par divers fabricants. Les médicaments sont préparés dans des conditions de fabrication strictes qui rivalisent avec celles des laboratoires pharmaceutiques.
-De vastes recherches scientifiques modernes au Japon ont validé l'efficacité des médicaments kampo[2]. En octobre 2000, une étude nationale a été menée et a rapporté que 72% des médecins agréés prescrivent des médicaments kampo[3]. Les deux principales entreprises fabriquant des médicaments kampo sont Tsumura (ツ ム ラ) et Kracie (ク ラ シ エ), l'ancien nom de Kanebō (カ ネ ボ ウ)[4].
+De vastes recherches scientifiques modernes au Japon ont validé l'efficacité des médicaments kampo. En octobre 2000, une étude nationale a été menée et a rapporté que 72% des médecins agréés prescrivent des médicaments kampo. Les deux principales entreprises fabriquant des médicaments kampo sont Tsumura (ツ ム ラ) et Kracie (ク ラ シ エ), l'ancien nom de Kanebō (カ ネ ボ ウ).
 La liste suivante répertorie les médicaments kampo produits par Tsumura. De nombreux médicaments kampo ont été empruntés à la Chine. Le nom chinois de la formule sur laquelle est basé le médicament kampo est indiqué ci-dessous. Cependant, la formule ne correspond généralement pas complètement à la formule chinoise d'origine. Souvent, les proportions des herbes ont été légèrement modifiées. Certaines espèces d'herbes chinoises ont également été remplacées par des herbes trouvées au Japon.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_Kampo</t>
+          <t>Liste_de_médicaments_Kampo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>OTC kampo/quasi kampo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Kampo en vente libre (一般用医薬品 littéralement médecine à usage général) comprennent certaines formulations de Kampo/quasi Kampo qui peuvent être obtenues sans se rendre dans un magasin spécialisé Kampo et/ou sans ordonnance d'un médecin. Ils peuvent être achetés dans n'importe quelle pharmacie ou même dans des magasins généralistes.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_Kampo</t>
+          <t>Liste_de_médicaments_Kampo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Herbes utilisées dans les médicaments kampo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La 14e édition de la Pharmacopée japonaise (JP) (日本薬局方 Nihon yakkyokuhō) répertorie 165 ingrédients à base de plantes qui sont utilisés dans les médicaments kampo[5]. Tsumura (ツ ム ラ) est le principal fabricant de médecine kampo[4]. Ils fabriquent 128 des 148 médicaments kampo. L'herbe la plus courante dans la médecine kampo est Glycyrrhizae Radix (racine de réglisse chinoise). Elle est présente dans 94 des 128 formules produit par Tsumura.Zingiberis Rhizoma (gingembre) (51 formules sur 128) et Paeoniae Radix (racine de pivoine chinoise) (44 formules sur 128) sont aussi très utilisées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 14e édition de la Pharmacopée japonaise (JP) (日本薬局方 Nihon yakkyokuhō) répertorie 165 ingrédients à base de plantes qui sont utilisés dans les médicaments kampo. Tsumura (ツ ム ラ) est le principal fabricant de médecine kampo. Ils fabriquent 128 des 148 médicaments kampo. L'herbe la plus courante dans la médecine kampo est Glycyrrhizae Radix (racine de réglisse chinoise). Elle est présente dans 94 des 128 formules produit par Tsumura.Zingiberis Rhizoma (gingembre) (51 formules sur 128) et Paeoniae Radix (racine de pivoine chinoise) (44 formules sur 128) sont aussi très utilisées.
 </t>
         </is>
       </c>
